--- a/Motor Driver Interp.xlsx
+++ b/Motor Driver Interp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmcintos\Documents\GitHub\ME-3623-Motor-Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F6DF00-ED5F-448D-8678-1C7B7DBCEF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF79790-2D49-4546-8DDE-0E88EF976A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A2A09A9C-3540-4F6D-966A-419DB07AC59D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Serial Number</t>
   </si>
@@ -64,18 +64,114 @@
   <si>
     <t>440011438.0</t>
   </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Motor Inductance (mH)</t>
+  </si>
+  <si>
+    <t>Disk Diameter (mm)</t>
+  </si>
+  <si>
+    <t>Disk Thickness (mm)</t>
+  </si>
+  <si>
+    <t>Nub diameter (mm)</t>
+  </si>
+  <si>
+    <t>Nub Thickness (mm)</t>
+  </si>
+  <si>
+    <t>Measured density (kg/m^3)</t>
+  </si>
+  <si>
+    <t>disk volume (mm^3)</t>
+  </si>
+  <si>
+    <t>Num volume (mm^3)</t>
+  </si>
+  <si>
+    <t>total volume (mm^3)</t>
+  </si>
+  <si>
+    <t>Motor Resistance (Ohm)</t>
+  </si>
+  <si>
+    <t>Disk Mass (g)</t>
+  </si>
+  <si>
+    <t>Hub Mass (g)</t>
+  </si>
+  <si>
+    <t>Speed Constant ( (rad/s) / V)</t>
+  </si>
+  <si>
+    <t>Tau (s)</t>
+  </si>
+  <si>
+    <t>Disk Inertia (kg*m^2)</t>
+  </si>
+  <si>
+    <t>Nub Inertia (kg*m^2)</t>
+  </si>
+  <si>
+    <t>Total Inertia (kg*m^2)</t>
+  </si>
+  <si>
+    <t>Damping (N*m/(rad/s))</t>
+  </si>
+  <si>
+    <t>Average SS speed (rad/s)</t>
+  </si>
+  <si>
+    <t>Average SS current (A)</t>
+  </si>
+  <si>
+    <t>5 Volt step test</t>
+  </si>
+  <si>
+    <t>Nub percent contribution</t>
+  </si>
+  <si>
+    <t>Shaft diameter (mm)</t>
+  </si>
+  <si>
+    <t>Total Mass (g)</t>
+  </si>
+  <si>
+    <t>Torque Constant (kg*m/ A)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.00000%"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,15 +191,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -190,7 +295,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CA"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -629,7 +734,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CA"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1068,7 +1173,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CA"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4178,7 +4283,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4214,7 +4319,7 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4560,19 +4665,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A746EDCB-8CC4-41CF-A3C1-136319D668F7}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4839,8 +4944,508 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30">
+        <v>10.9</v>
+      </c>
+      <c r="C30">
+        <v>7.8</v>
+      </c>
+      <c r="D30">
+        <v>7.8</v>
+      </c>
+      <c r="E30">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="C31">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="D31">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="E31">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <f>B52+B53</f>
+        <v>82.352530352729275</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:E32" si="0">C52+C53</f>
+        <v>258.59652224301652</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>82.352530352729275</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>258.59652224301652</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33">
+        <f>B60*B35/B61</f>
+        <v>1.2770472010571992E-5</v>
+      </c>
+      <c r="C33">
+        <f>C60*C35/C61</f>
+        <v>3.5832785204958892E-5</v>
+      </c>
+      <c r="D33">
+        <f>D60*D35/D61</f>
+        <v>2.1155570413992814E-5</v>
+      </c>
+      <c r="E33">
+        <f>E60*E35/E61</f>
+        <v>4.5510923407573234E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>116.52</v>
+      </c>
+      <c r="C34">
+        <v>379.4</v>
+      </c>
+      <c r="D34">
+        <v>116.52</v>
+      </c>
+      <c r="E34">
+        <v>379.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f>0.38164*1/100</f>
+        <v>3.8163999999999997E-3</v>
+      </c>
+      <c r="C35">
+        <f>0.38164*1/100</f>
+        <v>3.8163999999999997E-3</v>
+      </c>
+      <c r="D35">
+        <f>0.38164*1/100</f>
+        <v>3.8163999999999997E-3</v>
+      </c>
+      <c r="E35">
+        <f>0.38164*1/100</f>
+        <v>3.8163999999999997E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <f>B61/5</f>
+        <v>22.968834543131202</v>
+      </c>
+      <c r="C36">
+        <f>C61/5</f>
+        <v>11.77373693664166</v>
+      </c>
+      <c r="D36">
+        <f>D61/5</f>
+        <v>14.88181637206454</v>
+      </c>
+      <c r="E36">
+        <f>E61/5</f>
+        <v>11.093740820972521</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>77.5</v>
+      </c>
+      <c r="C38">
+        <v>76.2</v>
+      </c>
+      <c r="D38">
+        <v>77.5</v>
+      </c>
+      <c r="E38">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39">
+        <v>3.05</v>
+      </c>
+      <c r="C39">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D39">
+        <v>3.05</v>
+      </c>
+      <c r="E39">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>13.5</v>
+      </c>
+      <c r="C40">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D40">
+        <v>13.5</v>
+      </c>
+      <c r="E40">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41">
+        <v>8.25</v>
+      </c>
+      <c r="C41">
+        <v>12.6</v>
+      </c>
+      <c r="D41">
+        <v>8.25</v>
+      </c>
+      <c r="E41">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42">
+        <v>6.35</v>
+      </c>
+      <c r="C42">
+        <v>6.35</v>
+      </c>
+      <c r="D42">
+        <v>6.35</v>
+      </c>
+      <c r="E42">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44">
+        <f>PI()*B38^2/4*B39-PI()*B42^2/4*B39</f>
+        <v>14291.166929460107</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:D44" si="1">PI()*C38^2/4*C39-PI()*C42^2/4*C39</f>
+        <v>46192.720563225637</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>14291.166929460107</v>
+      </c>
+      <c r="E44">
+        <f>PI()*E38^2/4*E39-PI()*E42^2/4*E39</f>
+        <v>46192.720563225637</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45">
+        <f>PI()*B40^2/4*B41 - PI()*B42^2/4*B41</f>
+        <v>919.62418214362856</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:D45" si="2">PI()*C40^2/4*C41 - PI()*C42^2/4*C41</f>
+        <v>3211.1337704724124</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>919.62418214362856</v>
+      </c>
+      <c r="E45">
+        <f>PI()*E40^2/4*E41 - PI()*E42^2/4*E41</f>
+        <v>3211.1337704724124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46">
+        <f>B44+B45</f>
+        <v>15210.791111603736</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:E46" si="3">C44+C45</f>
+        <v>49403.854333698051</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="3"/>
+        <v>15210.791111603736</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>49403.854333698051</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47">
+        <f>B34/B46*10^6</f>
+        <v>7660.3510721484636</v>
+      </c>
+      <c r="C47">
+        <f>C34/C46*10^6</f>
+        <v>7679.562761183467</v>
+      </c>
+      <c r="D47">
+        <f>D34/D46*10^6</f>
+        <v>7660.3510721484636</v>
+      </c>
+      <c r="E47">
+        <f>E34/E46*10^6</f>
+        <v>7679.562761183467</v>
+      </c>
+      <c r="G47">
+        <f>AVERAGE(B47:E47)</f>
+        <v>7669.9569166659658</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49">
+        <f>B44/B46*B34</f>
+        <v>109.4753559103424</v>
+      </c>
+      <c r="C49">
+        <f>C44/C46*C34</f>
+        <v>354.73989667510136</v>
+      </c>
+      <c r="D49">
+        <f>D44/D46*D34</f>
+        <v>109.4753559103424</v>
+      </c>
+      <c r="E49">
+        <f>E44/E46*E34</f>
+        <v>354.73989667510136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50">
+        <f>B45/B46*B34</f>
+        <v>7.0446440896575986</v>
+      </c>
+      <c r="C50">
+        <f>C45/C46*C34</f>
+        <v>24.660103324898593</v>
+      </c>
+      <c r="D50">
+        <f>D45/D46*D34</f>
+        <v>7.0446440896575986</v>
+      </c>
+      <c r="E50">
+        <f>E45/E46*E34</f>
+        <v>24.660103324898593</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52">
+        <f>0.5*B49*B38^2/4/1000</f>
+        <v>82.192044554561761</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:D52" si="4">0.5*C49*C38^2/4/1000</f>
+        <v>257.47199070627198</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="4"/>
+        <v>82.192044554561761</v>
+      </c>
+      <c r="E52">
+        <f>0.5*E49*E38^2/4/1000</f>
+        <v>257.47199070627198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53">
+        <f>0.5*B50*B40^2/4/1000</f>
+        <v>0.16048579816751218</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:E53" si="5">0.5*C50*C40^2/4/1000</f>
+        <v>1.1245315367445321</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="5"/>
+        <v>0.16048579816751218</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="5"/>
+        <v>1.1245315367445321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="2">
+        <f>B53/B32</f>
+        <v>1.9487658421681207E-3</v>
+      </c>
+      <c r="C55" s="2">
+        <f>C53/C32</f>
+        <v>4.3485949733219984E-3</v>
+      </c>
+      <c r="D55" s="2">
+        <f>D53/D32</f>
+        <v>1.9487658421681207E-3</v>
+      </c>
+      <c r="E55" s="2">
+        <f>E53/E32</f>
+        <v>4.3485949733219984E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58">
+        <v>0.65259456634521396</v>
+      </c>
+      <c r="C58">
+        <v>2.1042797565460201</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0.55540251731872503</v>
+      </c>
+      <c r="E58">
+        <v>1.21437811851501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60">
+        <v>0.38429260382627101</v>
+      </c>
+      <c r="C60">
+        <v>0.55272742206054304</v>
+      </c>
+      <c r="D60">
+        <v>0.412474208871348</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0.66146943298232497</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61">
+        <v>114.844172715656</v>
+      </c>
+      <c r="C61">
+        <v>58.868684683208301</v>
+      </c>
+      <c r="D61">
+        <v>74.409081860322701</v>
+      </c>
+      <c r="E61" s="4">
+        <v>55.468704104862603</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A57:E57"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>